--- a/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
@@ -780,6 +780,9 @@
       <c r="C41" t="str">
         <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -841,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01468661591231341347512125555510584351225202515515624580</v>
+        <v>01468661591231341347512125555510584351225202515515624581</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
@@ -781,7 +781,7 @@
         <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01468661591231341347512125555510584351225202515515624581</v>
+        <v>014686615912313413475121255555105843512252025155156245810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,9 +784,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -844,7 +871,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014686615912313413475121255555105843512252025155156245810</v>
+        <v>01468661591231341347512125555510584351225202515515624581010113</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-13.xlsx
@@ -33,7 +33,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -873,6 +877,9 @@
       <c r="G2" t="str">
         <v>01468661591231341347512125555510584351225202515515624581010113</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
